--- a/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="143">
   <si>
     <t xml:space="preserve">Sampling Variables Inputs</t>
   </si>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Steady State</t>
   </si>
   <si>
-    <t xml:space="preserve">YES</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Region</t>
@@ -242,6 +242,9 @@
     <t xml:space="preserve">Beta  Non-lipid digesta  (defualt = .035)</t>
   </si>
   <si>
+    <t xml:space="preserve">PCB 52</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timesteps →</t>
   </si>
   <si>
@@ -251,19 +254,25 @@
     <t xml:space="preserve">Total Concentration in Water (ug/L)</t>
   </si>
   <si>
+    <t xml:space="preserve">V, Normal (0.000005, 0.0000001)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dissolved Concentration in Water (ug/L) </t>
   </si>
   <si>
-    <t xml:space="preserve">V, Normal (0.000005, 0.0000001)</t>
+    <t xml:space="preserve">U, Normal (0.0000265, 0.0000005)</t>
   </si>
   <si>
     <t xml:space="preserve">Concentration in Pore Water (ug/L)</t>
   </si>
   <si>
-    <t xml:space="preserve">U, Normal (0.0000265, 0.0000005)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V, Normal (0.0000265, 0.0000005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration in Pore Water (ug/L) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegan Cove Dummy</t>
   </si>
   <si>
     <r>
@@ -308,6 +317,9 @@
       </rPr>
       <t xml:space="preserve">0.0000125, 0.000005)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">South Pond Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">Fish</t>
@@ -641,7 +653,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +736,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -889,7 +907,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,19 +1064,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,15 +1088,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,7 +1172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,11 +1180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,11 +1192,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,7 +1234,7 @@
       <rgbColor rgb="FF8EB4E3"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1227,7 +1257,7 @@
       <rgbColor rgb="FFFAC090"/>
       <rgbColor rgb="FF538DD5"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFDA9694"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1257,9 +1287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1018440</xdr:colOff>
+      <xdr:colOff>1018080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1269,7 +1299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14045040" y="571680"/>
-          <a:ext cx="9470520" cy="7808400"/>
+          <a:ext cx="9470160" cy="7808040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2969280</xdr:colOff>
+      <xdr:colOff>2968920</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1748,7 +1778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11978640" y="546120"/>
-          <a:ext cx="2969280" cy="569880"/>
+          <a:ext cx="2968920" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1959,9 +1989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5214240</xdr:colOff>
+      <xdr:colOff>5213880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1971,7 +2001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11979000" y="2464920"/>
-          <a:ext cx="9911520" cy="4177800"/>
+          <a:ext cx="9911160" cy="4177440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2270,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2330640</xdr:colOff>
+      <xdr:colOff>2330280</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2286,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16676280" y="10278720"/>
-          <a:ext cx="2330640" cy="734760"/>
+          <a:ext cx="2330280" cy="734400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,9 +2477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2459,7 +2489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22839480" y="2082960"/>
-          <a:ext cx="3747240" cy="759960"/>
+          <a:ext cx="3746880" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,9 +2619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1018080</xdr:colOff>
+      <xdr:colOff>1017720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2601,7 +2631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21425760" y="2130480"/>
-          <a:ext cx="2879640" cy="759960"/>
+          <a:ext cx="2879280" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,8 +2749,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1019520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2758,14 +2788,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1019160</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2854,8 +2884,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2893,14 +2923,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2937,7 +2967,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1383120</xdr:colOff>
+      <xdr:colOff>1383480</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:from>
@@ -2954,8 +2984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15023880" y="594720"/>
-          <a:ext cx="4077000" cy="950760"/>
+          <a:off x="15024240" y="594720"/>
+          <a:ext cx="4076640" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3006,9 +3036,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -3023,8 +3053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14242680" y="3683160"/>
-          <a:ext cx="9087480" cy="3477960"/>
+          <a:off x="14243040" y="3772800"/>
+          <a:ext cx="9087120" cy="3477600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3466,15 +3496,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2797200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:colOff>1936080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>693360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3483,8 +3513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6503400" y="4372200"/>
-          <a:ext cx="8330760" cy="650520"/>
+          <a:off x="5642280" y="9319320"/>
+          <a:ext cx="8330400" cy="650520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3642,9 +3672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4550400</xdr:colOff>
+      <xdr:colOff>4550040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3654,7 +3684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11780280" y="3467880"/>
-          <a:ext cx="4062240" cy="748440"/>
+          <a:ext cx="4061880" cy="748080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3756,9 +3786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4614840</xdr:colOff>
+      <xdr:colOff>4614480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3768,7 +3798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17375400" y="3725640"/>
-          <a:ext cx="4331520" cy="340920"/>
+          <a:ext cx="4331160" cy="340560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,9 +3915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5383080</xdr:colOff>
+      <xdr:colOff>5382720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3897,7 +3927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9213840" y="76320"/>
-          <a:ext cx="5256000" cy="1496520"/>
+          <a:ext cx="5255640" cy="1496160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4099,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4989600</xdr:colOff>
+      <xdr:colOff>4989240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4111,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12084120" y="2705040"/>
-          <a:ext cx="1992240" cy="658800"/>
+          <a:ext cx="1991880" cy="658440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4218,9 +4248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:colOff>759960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4230,7 +4260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11168280" y="4140000"/>
-          <a:ext cx="10733400" cy="391680"/>
+          <a:ext cx="10733040" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4342,9 +4372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4354,7 +4384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12163680" y="2984400"/>
-          <a:ext cx="9178920" cy="417240"/>
+          <a:ext cx="9178560" cy="416880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4411,9 +4441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4423,7 +4453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12151080" y="3556080"/>
-          <a:ext cx="11886840" cy="696600"/>
+          <a:ext cx="11886480" cy="696240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4485,9 +4515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>277200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4497,7 +4527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13899240" y="761760"/>
-          <a:ext cx="6530040" cy="5878440"/>
+          <a:ext cx="6529680" cy="5878080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4614,7 +4644,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4636,7 +4666,7 @@
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">B2*B3</f>
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4654,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5154,7 +5184,7 @@
   </sheetPr>
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5505,10 +5535,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5605,15 +5635,76 @@
       </c>
       <c r="B10" s="34"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="28" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="31" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="34"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5631,10 +5722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BJ46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5648,7 +5739,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="36" t="n">
         <v>0</v>
@@ -5895,1630 +5986,3585 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="D5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="E5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="F5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="G5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="H5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="I5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="J5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="K5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="L5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="N5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="O5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="P5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Q5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="R5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="S5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="T5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="U5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="V5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="W5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="X5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Y5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Z5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AA5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AB5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AC5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AD5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AE5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AF5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AG5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AH5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AI5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AJ5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AK5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AL5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AM5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AN5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AO5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AP5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AQ5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AR5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AS5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AT5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AU5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AV5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AW5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AX5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AY5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AZ5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BA5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BB5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BC5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BD5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BE5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BF5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BG5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BH5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BI5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BJ5" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="C6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="D6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="H6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="N6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="O6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="P6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Q6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="R6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="S6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="T6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="U6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="V6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="W6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="X6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Y6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Z6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AA6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AB6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AC6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AD6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AE6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AF6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AG6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AH6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AI6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AJ6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AK6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AL6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AM6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AN6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AO6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AP6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AQ6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AR6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AS6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AT6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AU6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AV6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AW6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AX6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AY6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AZ6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BA6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BB6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BC6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BD6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BE6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BF6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BG6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BH6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BI6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BJ6" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="D6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="E6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="F6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="G6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="H6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="I6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="J6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="K6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="L6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="M6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="N6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="O6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="P6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Q6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="R6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="S6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="T6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="U6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="V6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="W6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="X6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Y6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Z6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AA6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AB6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AC6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AD6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AE6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AF6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AG6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AH6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AI6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AJ6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AK6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AL6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AM6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AN6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AO6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AP6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AQ6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AR6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AS6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AT6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AU6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AV6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AW6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AX6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AY6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AZ6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BA6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BB6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BC6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BD6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BE6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BF6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BG6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BH6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BI6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BJ6" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>27</v>
+      <c r="C7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="D7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="E7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="H7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="J7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="K7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="L7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="M7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="N7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="O7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="P7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Q7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="R7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="S7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="T7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="U7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="V7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="W7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="X7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Y7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Z7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AA7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AB7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AC7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AD7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AE7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AF7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AG7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AH7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AI7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AJ7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AK7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AL7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AM7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AN7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AO7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AP7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AQ7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AR7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AS7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AT7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AU7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AV7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AW7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AX7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AY7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AZ7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BA7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BB7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BC7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BD7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BE7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BF7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BG7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BH7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BI7" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BJ7" s="42" t="n">
+        <v>2.65E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
-        <v>65</v>
+      <c r="A8" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="D10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="E10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="F10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="G10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="H10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="I10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="J10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="K10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="L10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="M10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="N10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="O10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="P10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Q10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="R10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="S10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="T10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="U10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="V10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="W10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="X10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Y10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="Z10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AA10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AB10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AC10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AD10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AE10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AF10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AG10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AH10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AI10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AJ10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AK10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AL10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AM10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AN10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AO10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AP10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AQ10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AR10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AS10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AT10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AU10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AV10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AW10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AX10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AY10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="AZ10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BA10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BB10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BC10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BD10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BE10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BF10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BG10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BH10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BI10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="BJ10" s="40" t="n">
-        <v>5E-006</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="C11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="D11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="H11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="I11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="J11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="K11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="L11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="N11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="O11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="P11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Q11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="R11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="S11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="T11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="U11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="V11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="W11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="X11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Y11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Z11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AA11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AB11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AC11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AD11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AE11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AF11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AG11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AH11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AI11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AJ11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AK11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AL11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AM11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AN11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AO11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AP11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AQ11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AR11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AS11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AT11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AU11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AV11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AW11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AX11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AY11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AZ11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BA11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BB11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BC11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BD11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BE11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BF11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BG11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BH11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BI11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BJ11" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="D12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="E12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="F12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="G12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="H12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="I12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="J12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="K12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="L12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="M12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="N12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="O12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="P12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Q12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="R12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="S12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="T12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="U12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="V12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="W12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="X12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Y12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Z12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AA12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AB12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AC12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AD12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AE12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AF12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AG12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AH12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AI12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AJ12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AK12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AL12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AM12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AN12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AO12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AP12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AQ12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AR12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AS12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AT12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AU12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AV12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AW12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AX12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AY12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AZ12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BA12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BB12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BC12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BD12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BE12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BF12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BG12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BH12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BI12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BJ12" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="D17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="F17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="H17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="I17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="J17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="K17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="L17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="N17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="O17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="P17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Q17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="R17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="S17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="T17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="U17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="V17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="W17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="X17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Y17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Z17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AA17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AB17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AC17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AD17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AE17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AF17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AG17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AH17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AI17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AJ17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AK17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AL17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AM17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AN17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AO17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AP17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AQ17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AR17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AS17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AT17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AU17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AV17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AW17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AX17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AY17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AZ17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BA17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BB17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BC17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BD17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BE17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BF17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BG17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BH17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BI17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BJ17" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="D18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="E18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="F18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="G18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="H18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="I18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="J18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="K18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="L18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="M18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="N18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="O18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="P18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Q18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="R18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="S18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="T18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="U18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="V18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="W18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="X18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Y18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Z18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AA18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AB18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AC18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AD18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AE18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AF18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AG18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AH18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AI18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AJ18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AK18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AL18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AM18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AN18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AO18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AP18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AQ18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AR18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AS18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AT18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AU18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AV18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AW18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AX18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AY18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AZ18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BA18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BB18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BC18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BD18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BE18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BF18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BG18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BH18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BI18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BJ18" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="D11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="E11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="F11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="H11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="I11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="J11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="K11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="L11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="M11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="N11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="O11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="P11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Q11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="R11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="S11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="T11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="U11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="V11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="W11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="X11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Y11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="Z11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AA11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AB11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AC11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AD11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AE11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AF11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AG11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AH11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AI11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AJ11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AK11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AL11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AM11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AN11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AO11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AP11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AQ11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AR11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AS11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AT11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AU11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AV11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AW11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AX11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AY11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="AZ11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BA11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BB11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BC11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BD11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BE11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BF11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BG11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BH11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BI11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-      <c r="BJ11" s="41" t="n">
-        <v>2.65E-005</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="D22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="F22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="G22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="H22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="I22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="J22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="K22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="L22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="M22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="N22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="O22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="P22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Q22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="R22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="S22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="T22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="U22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="V22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="W22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="X22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Y22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="Z22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AA22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AB22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AC22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AD22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AE22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AF22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AG22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AH22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AI22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AJ22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AK22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AL22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AM22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AN22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AO22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AP22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AQ22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AR22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AS22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AT22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AU22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AV22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AW22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AX22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AY22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="AZ22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BA22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BB22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BC22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BD22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BE22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BF22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BG22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BH22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BI22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="BJ22" s="39" t="n">
+        <v>5E-006</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="D23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="E23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="F23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="G23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="H23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="I23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="J23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="K23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="L23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="M23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="N23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="O23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="P23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Q23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="R23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="S23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="T23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="U23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="V23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="W23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="X23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Y23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="Z23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AA23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AB23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AC23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AD23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AE23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AF23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AG23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AH23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AI23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AJ23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AK23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AL23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AM23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AN23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AO23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AP23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AQ23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AR23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AS23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AT23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AU23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AV23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AW23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AX23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AY23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="AZ23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BA23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BB23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BC23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BD23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BE23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BF23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BG23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BH23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BI23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+      <c r="BJ23" s="42" t="n">
+        <v>2.65E-005</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="s">
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="E15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="H15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="J15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="K15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="L15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="M15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="N15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="O15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="P15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Q15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="R15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="S15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="T15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="U15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="V15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="W15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="X15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Y15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Z15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AA15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AB15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AC15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AD15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AE15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AF15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AG15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AH15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AI15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AJ15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AK15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AL15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AM15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AN15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AO15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AP15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AQ15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AR15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AS15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AT15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AU15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AV15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AW15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AX15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AY15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AZ15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BA15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BB15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BC15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BD15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BE15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BF15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BG15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BH15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BI15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BJ15" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
+      <c r="B28" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="D28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="E28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="F28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="G28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="H28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="I28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="J28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="K28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="L28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="M28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="N28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="O28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="P28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Q28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="R28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="S28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="T28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="U28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="V28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="W28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="X28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Y28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Z28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AA28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AB28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AC28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AD28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AE28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AF28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AG28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AH28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AI28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AJ28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AK28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AL28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AM28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AN28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AO28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AP28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AQ28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AR28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AS28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AT28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AU28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AV28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AW28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AX28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AY28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AZ28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BA28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BB28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BC28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BD28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BE28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BF28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BG28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BH28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BI28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BJ28" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="D16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="E16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="F16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="G16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="H16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="I16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="J16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="K16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="L16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="M16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="N16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="O16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="P16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Q16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="R16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="S16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="T16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="U16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="V16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="W16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="X16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Y16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Z16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AA16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AB16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AC16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AD16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AE16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AF16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AG16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AH16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AI16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AJ16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AK16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AL16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AM16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AN16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AO16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AP16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AQ16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AR16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AS16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AT16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AU16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AV16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AW16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AX16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AY16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AZ16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BA16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BB16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BC16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BD16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BE16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BF16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BG16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BH16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BI16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BJ16" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="B29" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="D29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="E29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="F29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="G29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="H29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="I29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="J29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="K29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="L29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="M29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="N29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="O29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="P29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Q29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="R29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="S29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="T29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="U29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="V29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="W29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="X29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Y29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Z29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AA29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AB29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AC29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AD29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AE29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AF29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AG29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AH29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AI29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AJ29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AK29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AL29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AM29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AN29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AO29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AP29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AQ29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AR29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AS29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AT29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AU29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AV29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AW29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AX29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AY29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AZ29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BA29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BB29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BC29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BD29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BE29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BF29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BG29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BH29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BI29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BJ29" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="D20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="E20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="F20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="G20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="H20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="I20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="J20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="K20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="L20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="M20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="N20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="O20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="P20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Q20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="R20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="S20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="T20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="U20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="V20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="W20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="X20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Y20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="Z20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AA20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AB20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AC20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AD20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AE20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AF20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AG20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AH20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AI20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AJ20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AK20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AL20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AM20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AN20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AO20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AP20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AQ20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AR20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AS20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AT20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AU20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AV20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AW20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AX20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AY20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="AZ20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BA20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BB20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BC20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BD20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BE20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BF20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BG20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BH20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BI20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-      <c r="BJ20" s="41" t="n">
-        <v>6.4E-006</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="B33" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="D33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="E33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="F33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="G33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="H33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="I33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="J33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="K33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="L33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="M33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="N33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="O33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="P33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Q33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="R33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="S33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="T33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="U33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="V33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="W33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="X33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Y33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Z33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AA33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AB33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AC33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AD33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AE33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AF33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AG33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AH33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AI33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AJ33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AK33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AL33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AM33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AN33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AO33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AP33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AQ33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AR33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AS33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AT33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AU33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AV33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AW33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AX33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AY33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AZ33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BA33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BB33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BC33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BD33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BE33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BF33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BG33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BH33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BI33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BJ33" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="D21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="F21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="G21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="H21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="I21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="J21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="K21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="L21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="M21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="N21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="O21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="P21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Q21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="R21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="S21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="T21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="U21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="V21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="W21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="X21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Y21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="Z21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AA21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AB21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AC21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AD21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AE21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AF21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AG21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AH21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AI21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AJ21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AK21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AL21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AM21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AN21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AO21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AP21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AQ21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AR21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AS21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AT21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AU21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AV21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AW21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AX21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AY21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="AZ21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BA21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BB21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BC21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BD21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BE21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BF21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BG21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BH21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BI21" s="41" t="n">
-        <v>1.25E-005</v>
-      </c>
-      <c r="BJ21" s="41" t="n">
-        <v>1.25E-005</v>
+      <c r="B34" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="E34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="F34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="G34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="H34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="I34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="J34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="K34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="L34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="M34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="N34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="O34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="P34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Q34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="R34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="S34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="T34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="U34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="V34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="W34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="X34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Y34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Z34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AA34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AB34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AC34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AD34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AE34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AF34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AG34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AH34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AI34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AJ34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AK34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AL34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AM34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AN34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AO34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AP34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AQ34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AR34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AS34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AT34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AU34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AV34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AW34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AX34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AY34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AZ34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BA34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BB34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BC34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BD34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BE34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BF34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BG34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BH34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BI34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BJ34" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="D39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="E39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="F39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="G39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="H39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="I39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="J39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="K39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="L39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="M39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="N39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="O39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="P39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Q39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="R39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="S39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="T39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="U39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="V39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="W39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="X39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Y39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Z39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AA39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AB39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AC39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AD39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AE39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AF39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AG39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AH39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AI39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AJ39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AK39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AL39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AM39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AN39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AO39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AP39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AQ39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AR39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AS39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AT39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AU39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AV39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AW39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AX39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AY39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AZ39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BA39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BB39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BC39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BD39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BE39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BF39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BG39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BH39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BI39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BJ39" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="D40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="E40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="F40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="G40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="H40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="I40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="J40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="K40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="L40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="M40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="N40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="O40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="P40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Q40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="R40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="S40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="T40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="U40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="V40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="W40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="X40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Y40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Z40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AA40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AB40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AC40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AD40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AE40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AF40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AG40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AH40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AI40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AJ40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AK40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AL40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AM40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AN40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AO40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AP40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AQ40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AR40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AS40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AT40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AU40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AV40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AW40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AX40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AY40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AZ40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BA40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BB40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BC40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BD40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BE40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BF40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BG40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BH40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BI40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BJ40" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="D44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="E44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="F44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="G44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="H44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="I44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="J44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="K44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="L44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="M44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="N44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="O44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="P44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Q44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="R44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="S44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="T44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="U44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="V44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="W44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="X44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Y44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="Z44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AA44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AB44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AC44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AD44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AE44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AF44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AG44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AH44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AI44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AJ44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AK44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AL44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AM44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AN44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AO44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AP44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AQ44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AR44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AS44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AT44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AU44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AV44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AW44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AX44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AY44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="AZ44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BA44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BB44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BC44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BD44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BE44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BF44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BG44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BH44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BI44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="BJ44" s="42" t="n">
+        <v>6.4E-006</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="D45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="E45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="F45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="G45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="H45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="I45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="J45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="K45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="L45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="M45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="N45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="O45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="P45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Q45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="R45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="S45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="T45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="U45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="V45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="W45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="X45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Y45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="Z45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AA45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AB45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AC45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AD45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AE45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AF45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AG45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AH45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AI45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AJ45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AK45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AL45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AM45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AN45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AO45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AP45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AQ45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AR45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AS45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AT45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AU45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AV45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AW45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AX45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AY45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="AZ45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BA45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BB45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BC45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BD45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BE45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BF45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BG45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BH45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BI45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+      <c r="BJ45" s="42" t="n">
+        <v>1.25E-005</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7562,289 +9608,289 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>76</v>
+      <c r="F2" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>77</v>
+      <c r="H2" s="53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
-        <v>79</v>
+      <c r="A3" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>0.047</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="51" t="n">
+      <c r="C3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="54" t="n">
         <v>5.7E-008</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="51" t="n">
+        <v>85</v>
+      </c>
+      <c r="H3" s="54" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
-        <v>82</v>
+      <c r="A4" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="B4" s="12" t="n">
         <v>0.037</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="50" t="n">
+      <c r="C4" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="53" t="n">
         <v>0.031</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="50" t="n">
+        <v>87</v>
+      </c>
+      <c r="H4" s="53" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
-        <v>84</v>
+      <c r="A5" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="50" t="n">
+      <c r="C5" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="53" t="n">
         <v>0.047</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="50" t="n">
+        <v>89</v>
+      </c>
+      <c r="H5" s="53" t="n">
         <v>0.02</v>
       </c>
       <c r="J5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>86</v>
+      <c r="A6" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="48" t="s">
-        <v>86</v>
+      <c r="C6" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="48" t="s">
-        <v>86</v>
+      <c r="E6" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="48" t="s">
-        <v>88</v>
+      <c r="A7" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="48" t="s">
-        <v>88</v>
+      <c r="E7" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="48" t="s">
-        <v>89</v>
+      <c r="A8" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="48" t="s">
-        <v>89</v>
+      <c r="E8" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48" t="s">
-        <v>90</v>
+      <c r="A9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="48" t="s">
-        <v>90</v>
+      <c r="E9" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="53"/>
+        <v>95</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="48" t="s">
-        <v>91</v>
+      <c r="E10" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="B11" s="53"/>
       <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="54"/>
+        <v>96</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="57" t="n">
+        <v>97</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>94</v>
+      <c r="B14" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
-        <v>79</v>
+      <c r="A15" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="12" t="n">
         <v>0.098</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="s">
-        <v>82</v>
+      <c r="A16" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="12" t="n">
         <v>0.0202</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="58"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48" t="s">
-        <v>84</v>
+      <c r="A17" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="12"/>
       <c r="D17" s="5"/>
@@ -7852,154 +9898,154 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48" t="s">
-        <v>86</v>
+      <c r="A18" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="B18" s="17"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="58"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="52"/>
+      <c r="A19" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="55"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="52"/>
+      <c r="A20" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="55"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="58"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="50"/>
+      <c r="A21" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="53"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="58"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="53"/>
+        <v>95</v>
+      </c>
+      <c r="B22" s="56"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="58"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="B23" s="53"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="58"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="B24" s="57"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>95</v>
+      <c r="B26" s="52" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48" t="s">
-        <v>79</v>
+      <c r="A27" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="B27" s="12" t="n">
         <v>0.431</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48" t="s">
-        <v>82</v>
+      <c r="A28" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="12" t="n">
         <v>0.0276</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48" t="s">
-        <v>84</v>
+      <c r="A29" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="B29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48" t="s">
-        <v>86</v>
+      <c r="A30" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="B30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="52"/>
+      <c r="A31" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="55"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="52"/>
+      <c r="A32" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="55"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="50"/>
+      <c r="A33" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="53"/>
+        <v>95</v>
+      </c>
+      <c r="B34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="B35" s="53"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8034,56 +10080,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>96</v>
+      <c r="B1" s="65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="63" t="n">
+      <c r="A3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="63" t="n">
+      <c r="A4" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="66" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="63" t="n">
+      <c r="A5" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="66" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="63" t="n">
+      <c r="A6" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="63" t="n">
+      <c r="A7" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="66" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="27"/>
@@ -8091,72 +10137,72 @@
       <c r="E7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="63" t="n">
+      <c r="A8" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>96</v>
+      <c r="B9" s="65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="63"/>
+      <c r="A10" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="63" t="n">
+      <c r="A11" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="63" t="n">
+      <c r="A12" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="66" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="63" t="n">
+      <c r="A13" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="66" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="63" t="n">
+      <c r="A14" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="63" t="n">
+      <c r="A15" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="63" t="n">
+      <c r="A16" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="66" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="27"/>
@@ -8164,56 +10210,56 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>96</v>
+      <c r="B17" s="65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="66"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="63" t="n">
+      <c r="A19" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="63" t="n">
+      <c r="A20" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="66" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="63" t="n">
+      <c r="A21" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="66" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="63" t="n">
+      <c r="A22" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="66" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="63" t="n">
+      <c r="A23" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="66" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="27"/>
@@ -8221,10 +10267,10 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="63" t="n">
+      <c r="A24" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="66" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="27"/>
@@ -8305,163 +10351,163 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BB1" s="27"/>
       <c r="BC1" s="27"/>
@@ -8944,163 +10990,163 @@
       <c r="TL1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="66" t="n">
+      <c r="A2" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="69" t="n">
         <v>1</v>
       </c>
       <c r="FM2" s="27"/>
@@ -9109,163 +11155,163 @@
       <c r="MN2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="66" t="n">
+      <c r="A3" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="69" t="n">
         <v>1</v>
       </c>
       <c r="FM3" s="27"/>
@@ -9274,163 +11320,163 @@
       <c r="MN3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="66" t="n">
+      <c r="A4" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="69" t="n">
         <v>1</v>
       </c>
       <c r="FM4" s="27"/>
@@ -9475,19 +11521,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
@@ -9496,16 +11542,16 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
@@ -9513,13 +11559,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -9533,7 +11579,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -9547,7 +11593,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -9561,7 +11607,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -9575,7 +11621,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -9884,9 +11930,9 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
@@ -9894,17 +11940,17 @@
       <c r="H38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="68" t="n">
+      <c r="A39" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="71" t="n">
         <v>40</v>
       </c>
-      <c r="C39" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>125</v>
+      <c r="C39" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>129</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -9912,487 +11958,487 @@
       <c r="H39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="B40" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="70"/>
+      <c r="D40" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="65" t="s">
-        <v>136</v>
+      <c r="A41" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>140</v>
       </c>
       <c r="H41" s="27"/>
       <c r="AW41" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>136</v>
+      <c r="A42" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>140</v>
       </c>
       <c r="H42" s="27"/>
       <c r="AW42" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>136</v>
+      <c r="F43" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>140</v>
       </c>
       <c r="AW43" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
       <c r="AW44" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
       <c r="AW45" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
       <c r="AW46" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
       <c r="AW47" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
       <c r="AW48" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
       <c r="AW49" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="AW50" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
       <c r="AW51" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
       <c r="AW52" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
       <c r="AW53" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
       <c r="AW54" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
       <c r="AW55" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
       <c r="AW56" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW57" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW58" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW59" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW60" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW61" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW62" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW63" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW64" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW65" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW66" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW67" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW68" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW69" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW70" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW71" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW72" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW73" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW74" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW75" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW76" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW77" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW78" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW79" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW80" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW81" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW82" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW83" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW84" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW85" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW86" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW87" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW88" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW89" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW90" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW91" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW92" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW93" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW94" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW95" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW96" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW97" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW98" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW99" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="27"/>
       <c r="B100" s="27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AW100" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
@@ -436,16 +436,16 @@
     <t xml:space="preserve">Coordinate 4</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,0</t>
+    <t xml:space="preserve">0, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 0</t>
   </si>
   <si>
     <t xml:space="preserve">Sites:</t>
@@ -457,16 +457,16 @@
     <t xml:space="preserve">(x,y) (meters)</t>
   </si>
   <si>
-    <t xml:space="preserve">5,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,5</t>
+    <t xml:space="preserve">5, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 5</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Regional Samples per Fish Population :</t>
@@ -502,13 +502,13 @@
     <t xml:space="preserve">dummy pumpkin</t>
   </si>
   <si>
-    <t xml:space="preserve">0,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,0</t>
+    <t xml:space="preserve">0, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 0</t>
   </si>
   <si>
     <t xml:space="preserve">dummy bluegill</t>
@@ -1287,9 +1287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1018080</xdr:colOff>
+      <xdr:colOff>1017720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1299,7 +1299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14045040" y="571680"/>
-          <a:ext cx="9470160" cy="7808040"/>
+          <a:ext cx="9469800" cy="7807680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2968920</xdr:colOff>
+      <xdr:colOff>2968560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1778,7 +1778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11978640" y="546120"/>
-          <a:ext cx="2968920" cy="569520"/>
+          <a:ext cx="2968560" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,9 +1989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5213880</xdr:colOff>
+      <xdr:colOff>5213520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2001,7 +2001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11979000" y="2464920"/>
-          <a:ext cx="9911160" cy="4177440"/>
+          <a:ext cx="9910800" cy="4177080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2330280</xdr:colOff>
+      <xdr:colOff>2329920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16676280" y="10278720"/>
-          <a:ext cx="2330280" cy="734400"/>
+          <a:ext cx="2329920" cy="734040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,9 +2477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
+      <xdr:colOff>239400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2489,7 +2489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22839480" y="2082960"/>
-          <a:ext cx="3746880" cy="759600"/>
+          <a:ext cx="3746520" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,9 +2619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1017720</xdr:colOff>
+      <xdr:colOff>1017360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2631,7 +2631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21425760" y="2130480"/>
-          <a:ext cx="2879280" cy="759600"/>
+          <a:ext cx="2878920" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2973,9 +2973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
+      <xdr:colOff>99720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2985,7 +2985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15024240" y="594720"/>
-          <a:ext cx="4076640" cy="950760"/>
+          <a:ext cx="4076280" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,9 +3042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>897840</xdr:colOff>
+      <xdr:colOff>897480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3054,7 +3054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14243040" y="3772800"/>
-          <a:ext cx="9087120" cy="3477600"/>
+          <a:ext cx="9086760" cy="3477240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,7 +3502,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
+      <xdr:colOff>644400</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
@@ -3514,7 +3514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5642280" y="9319320"/>
-          <a:ext cx="8330400" cy="650520"/>
+          <a:ext cx="8330040" cy="650520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3672,9 +3672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4550040</xdr:colOff>
+      <xdr:colOff>4549680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3684,7 +3684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11780280" y="3467880"/>
-          <a:ext cx="4061880" cy="748080"/>
+          <a:ext cx="4061520" cy="747720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3786,9 +3786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4614480</xdr:colOff>
+      <xdr:colOff>4614120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3798,7 +3798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17375400" y="3725640"/>
-          <a:ext cx="4331160" cy="340560"/>
+          <a:ext cx="4330800" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3915,9 +3915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5382720</xdr:colOff>
+      <xdr:colOff>5382360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3927,7 +3927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9213840" y="76320"/>
-          <a:ext cx="5255640" cy="1496160"/>
+          <a:ext cx="5255280" cy="1495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4989240</xdr:colOff>
+      <xdr:colOff>4988880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4141,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12084120" y="2705040"/>
-          <a:ext cx="1991880" cy="658440"/>
+          <a:ext cx="1991520" cy="658080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4248,9 +4248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>759960</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4260,7 +4260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11168280" y="4140000"/>
-          <a:ext cx="10733040" cy="391320"/>
+          <a:ext cx="10732680" cy="390960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4372,9 +4372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4384,7 +4384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12163680" y="2984400"/>
-          <a:ext cx="9178560" cy="416880"/>
+          <a:ext cx="9178200" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,9 +4441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4453,7 +4453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12151080" y="3556080"/>
-          <a:ext cx="11886480" cy="696240"/>
+          <a:ext cx="11886120" cy="695880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,13 +4509,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277200</xdr:colOff>
+      <xdr:colOff>276840</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
@@ -4526,8 +4526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13899240" y="761760"/>
-          <a:ext cx="6529680" cy="5878080"/>
+          <a:off x="13899600" y="762120"/>
+          <a:ext cx="6528960" cy="5942520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4644,7 +4644,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">B2*B3</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11503,8 +11503,8 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11759,7 +11759,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -11944,7 +11944,7 @@
         <v>127</v>
       </c>
       <c r="B39" s="71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>128</v>

--- a/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,7 +230,7 @@
     <t xml:space="preserve"> Beta Lipid Omn (default = 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta Non-lipid OM (defualt = 0.035)</t>
+    <t xml:space="preserve">Beta Non-lipid OM (default = 0.035)</t>
   </si>
   <si>
     <t xml:space="preserve">Beta Lipid digesta (default = 1)</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">Beta Sediment OC (default = .35)</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta  Non-lipid digesta  (defualt = .035)</t>
+    <t xml:space="preserve">Beta  Non-lipid digesta  (default = .035)</t>
   </si>
   <si>
     <t xml:space="preserve">PCB 52</t>
@@ -1287,9 +1287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1017720</xdr:colOff>
+      <xdr:colOff>1017000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1299,7 +1299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14045040" y="571680"/>
-          <a:ext cx="9469800" cy="7807680"/>
+          <a:ext cx="9469080" cy="7806960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2968560</xdr:colOff>
+      <xdr:colOff>2967840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1778,7 +1778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11978640" y="546120"/>
-          <a:ext cx="2968560" cy="569160"/>
+          <a:ext cx="2967840" cy="568440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,9 +1989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5213520</xdr:colOff>
+      <xdr:colOff>5212800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2001,7 +2001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11979000" y="2464920"/>
-          <a:ext cx="9910800" cy="4177080"/>
+          <a:ext cx="9910080" cy="4176360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2329920</xdr:colOff>
+      <xdr:colOff>2329200</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16676280" y="10278720"/>
-          <a:ext cx="2329920" cy="734040"/>
+          <a:ext cx="2329200" cy="733320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,9 +2477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
+      <xdr:colOff>238680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2489,7 +2489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22839480" y="2082960"/>
-          <a:ext cx="3746520" cy="759240"/>
+          <a:ext cx="3745800" cy="758520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,9 +2619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1017360</xdr:colOff>
+      <xdr:colOff>1016640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2631,7 +2631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21425760" y="2130480"/>
-          <a:ext cx="2878920" cy="759240"/>
+          <a:ext cx="2878200" cy="758520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2973,9 +2973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2985,7 +2985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15024240" y="594720"/>
-          <a:ext cx="4076280" cy="950400"/>
+          <a:ext cx="4075560" cy="949680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,9 +3042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>897480</xdr:colOff>
+      <xdr:colOff>896760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3054,7 +3054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14243040" y="3772800"/>
-          <a:ext cx="9086760" cy="3477240"/>
+          <a:ext cx="9086040" cy="3476520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,7 +3502,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
@@ -3514,7 +3514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5642280" y="9319320"/>
-          <a:ext cx="8330040" cy="650520"/>
+          <a:ext cx="8329320" cy="650520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3672,9 +3672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4549680</xdr:colOff>
+      <xdr:colOff>4548960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3684,7 +3684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11780280" y="3467880"/>
-          <a:ext cx="4061520" cy="747720"/>
+          <a:ext cx="4060800" cy="747000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3786,9 +3786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4614120</xdr:colOff>
+      <xdr:colOff>4613400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3798,7 +3798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17375400" y="3725640"/>
-          <a:ext cx="4330800" cy="340200"/>
+          <a:ext cx="4330080" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3915,9 +3915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5382360</xdr:colOff>
+      <xdr:colOff>5381640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3927,7 +3927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9213840" y="76320"/>
-          <a:ext cx="5255280" cy="1495800"/>
+          <a:ext cx="5254560" cy="1495080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4988880</xdr:colOff>
+      <xdr:colOff>4988160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4141,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12084120" y="2705040"/>
-          <a:ext cx="1991520" cy="658080"/>
+          <a:ext cx="1990800" cy="657360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4248,9 +4248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>758880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4260,7 +4260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11168280" y="4140000"/>
-          <a:ext cx="10732680" cy="390960"/>
+          <a:ext cx="10731960" cy="390240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4372,9 +4372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4384,7 +4384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12163680" y="2984400"/>
-          <a:ext cx="9178200" cy="416520"/>
+          <a:ext cx="9177480" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,9 +4441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4453,7 +4453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12151080" y="3556080"/>
-          <a:ext cx="11886120" cy="695880"/>
+          <a:ext cx="11885400" cy="695160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4515,9 +4515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4527,7 +4527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13899600" y="762120"/>
-          <a:ext cx="6528960" cy="5942520"/>
+          <a:ext cx="6528240" cy="5941800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4643,8 +4643,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">B2*B3</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4684,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4694,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4762,7 +4762,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5537,8 +5537,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11503,7 +11503,7 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>

--- a/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond_Stat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -105,10 +105,10 @@
     <t xml:space="preserve">Dissolved oxygen concentration (if avaliable) (mg O2/L)</t>
   </si>
   <si>
-    <t xml:space="preserve">POC–octanol proportionality constant (only if Cwdo is unavaliable) (deafult if not entered = .08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC–octanol proportionality constant(only if Cwdo is unavaliable) (deafult if note entered = .35)</t>
+    <t xml:space="preserve">POC–octanol proportionality constant (only if Cwdo is unavaliable) (deafult if not entered = .35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC–octanol proportionality constant(only if Cwdo is unavaliable) (deafult if note entered = .08)</t>
   </si>
   <si>
     <t xml:space="preserve">Pegan Cove dummy</t>
@@ -521,10 +521,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -920,7 +921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,7 +941,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,7 +965,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,7 +1045,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1065,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1076,7 +1077,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1084,7 +1085,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1124,7 +1125,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1156,7 +1157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1287,9 +1288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1017000</xdr:colOff>
+      <xdr:colOff>1016640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1299,7 +1300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14045040" y="571680"/>
-          <a:ext cx="9469080" cy="7806960"/>
+          <a:ext cx="9468720" cy="7806600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,9 +1767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2967840</xdr:colOff>
+      <xdr:colOff>2967480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1778,7 +1779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11978640" y="546120"/>
-          <a:ext cx="2967840" cy="568440"/>
+          <a:ext cx="2967480" cy="568080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,9 +1990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5212800</xdr:colOff>
+      <xdr:colOff>5212440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2001,7 +2002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11979000" y="2464920"/>
-          <a:ext cx="9910080" cy="4176360"/>
+          <a:ext cx="9909720" cy="4176000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,9 +2301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2329200</xdr:colOff>
+      <xdr:colOff>2328840</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16676280" y="10278720"/>
-          <a:ext cx="2329200" cy="733320"/>
+          <a:ext cx="2328840" cy="732960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,9 +2478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>238320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2489,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22839480" y="2082960"/>
-          <a:ext cx="3745800" cy="758520"/>
+          <a:ext cx="3745440" cy="758160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1016640</xdr:colOff>
+      <xdr:colOff>1016280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2631,7 +2632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21425760" y="2130480"/>
-          <a:ext cx="2878200" cy="758520"/>
+          <a:ext cx="2877840" cy="758160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2973,9 +2974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2985,7 +2986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15024240" y="594720"/>
-          <a:ext cx="4075560" cy="949680"/>
+          <a:ext cx="4075200" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,9 +3043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>896760</xdr:colOff>
+      <xdr:colOff>896400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3054,7 +3055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14243040" y="3772800"/>
-          <a:ext cx="9086040" cy="3476520"/>
+          <a:ext cx="9085680" cy="3476160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,7 +3503,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
@@ -3514,7 +3515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5642280" y="9319320"/>
-          <a:ext cx="8329320" cy="650520"/>
+          <a:ext cx="8328960" cy="650520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3672,9 +3673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4548960</xdr:colOff>
+      <xdr:colOff>4548600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3684,7 +3685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11780280" y="3467880"/>
-          <a:ext cx="4060800" cy="747000"/>
+          <a:ext cx="4060440" cy="746640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3786,9 +3787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4613400</xdr:colOff>
+      <xdr:colOff>4613040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3798,7 +3799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17375400" y="3725640"/>
-          <a:ext cx="4330080" cy="339480"/>
+          <a:ext cx="4329720" cy="339120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3915,9 +3916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5381640</xdr:colOff>
+      <xdr:colOff>5381280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3927,7 +3928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9213840" y="76320"/>
-          <a:ext cx="5254560" cy="1495080"/>
+          <a:ext cx="5254200" cy="1494720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,9 +4130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4988160</xdr:colOff>
+      <xdr:colOff>4987800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4141,7 +4142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12084120" y="2705040"/>
-          <a:ext cx="1990800" cy="657360"/>
+          <a:ext cx="1990440" cy="657000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4248,9 +4249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>758880</xdr:colOff>
+      <xdr:colOff>758520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4260,7 +4261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11168280" y="4140000"/>
-          <a:ext cx="10731960" cy="390240"/>
+          <a:ext cx="10731600" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4372,9 +4373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4384,7 +4385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12163680" y="2984400"/>
-          <a:ext cx="9177480" cy="415800"/>
+          <a:ext cx="9177120" cy="415440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,9 +4442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4453,7 +4454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12151080" y="3556080"/>
-          <a:ext cx="11885400" cy="695160"/>
+          <a:ext cx="11885040" cy="694800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4515,9 +4516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>276120</xdr:colOff>
+      <xdr:colOff>275760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4527,7 +4528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13899600" y="762120"/>
-          <a:ext cx="6528240" cy="5941800"/>
+          <a:ext cx="6527880" cy="5941440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4644,7 +4645,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A39:A40 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4761,8 +4762,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5185,7 +5186,7 @@
   <dimension ref="A1:BI5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A39:A40 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5537,8 +5538,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A39:A40 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5725,7 +5726,7 @@
   <dimension ref="A1:BJ46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A39:A40 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9587,7 +9588,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A39:A40 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10068,7 +10069,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="A39:A40 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10316,7 +10317,7 @@
   <dimension ref="A1:TL4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="1" sqref="A39:A40 AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11504,7 +11505,7 @@
   <dimension ref="A1:AW100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="topLeft" activeCell="A42" activeCellId="1" sqref="A39:A40 A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
